--- a/xlsx/export.xlsx
+++ b/xlsx/export.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EXT03426951\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EXT03426951\Desktop\extension-for-envanter\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEDFACE-393D-4025-9EC5-258F5E16D4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71470C47-54BC-426D-B7EE-23B64912F7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -951,9 +951,6 @@
     <t>08 Mayıs 2025 16:13:00</t>
   </si>
   <si>
-    <t>SERİVS ETKİSİ</t>
-  </si>
-  <si>
     <t>AYBER;BUBSC;MEKZY;SANGR</t>
   </si>
   <si>
@@ -1059,6 +1056,9 @@
   </si>
   <si>
     <t>Arıza Süresi</t>
+  </si>
+  <si>
+    <t>Etkilenen Servis Bilgileri</t>
   </si>
 </sst>
 </file>
@@ -1199,11 +1199,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1521,8 +1521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I66" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U72" sqref="U72"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1530,11 +1530,11 @@
     <col min="1" max="2" width="10.6328125" style="4"/>
     <col min="3" max="4" width="15.6328125" style="4" customWidth="1"/>
     <col min="5" max="5" width="30.6328125" style="4" customWidth="1"/>
-    <col min="6" max="7" width="10.6328125" style="13"/>
-    <col min="8" max="8" width="20.6328125" style="13" customWidth="1"/>
+    <col min="6" max="7" width="10.6328125" style="4"/>
+    <col min="8" max="8" width="16.81640625" style="4" customWidth="1"/>
     <col min="9" max="9" width="10.6328125" style="4"/>
     <col min="10" max="11" width="15.6328125" style="4" customWidth="1"/>
-    <col min="12" max="14" width="10.6328125" style="13"/>
+    <col min="12" max="14" width="10.6328125" style="4"/>
     <col min="15" max="16" width="20.6328125" style="4" customWidth="1"/>
     <col min="17" max="21" width="10.6328125" style="4"/>
     <col min="22" max="22" width="20.6328125" style="4" customWidth="1"/>
@@ -1559,13 +1559,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>305</v>
+      <c r="H1" s="14" t="s">
+        <v>332</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
@@ -1577,13 +1577,13 @@
         <v>7</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>310</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>8</v>
@@ -1601,16 +1601,16 @@
         <v>12</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -5181,16 +5181,16 @@
         <v>297</v>
       </c>
       <c r="F69" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G69" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="G69" s="12" t="s">
-        <v>317</v>
-      </c>
       <c r="H69" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="I69" s="10" t="s">
         <v>306</v>
-      </c>
-      <c r="I69" s="10" t="s">
-        <v>307</v>
       </c>
       <c r="J69" s="10" t="s">
         <v>298</v>
@@ -5214,7 +5214,7 @@
         <v>156</v>
       </c>
       <c r="Q69" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="R69" s="8" t="s">
         <v>24</v>
@@ -5223,16 +5223,16 @@
         <v>81</v>
       </c>
       <c r="T69" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="U69" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
+      </c>
+      <c r="U69" s="13" t="s">
+        <v>323</v>
       </c>
       <c r="V69" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="W69" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="70" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -5252,14 +5252,14 @@
         <v>38</v>
       </c>
       <c r="F70" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="G70" s="12" t="s">
         <v>318</v>
-      </c>
-      <c r="G70" s="12" t="s">
-        <v>319</v>
       </c>
       <c r="H70" s="12"/>
       <c r="I70" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J70" s="10" t="s">
         <v>300</v>
@@ -5268,7 +5268,7 @@
         <v>301</v>
       </c>
       <c r="L70" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M70" s="12">
         <v>327</v>
@@ -5283,7 +5283,7 @@
         <v>302</v>
       </c>
       <c r="Q70" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="R70" s="8" t="s">
         <v>24</v>
@@ -5292,16 +5292,16 @@
         <v>24</v>
       </c>
       <c r="T70" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="U70" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
+      </c>
+      <c r="U70" s="13" t="s">
+        <v>312</v>
       </c>
       <c r="V70" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="W70" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -5321,14 +5321,14 @@
         <v>235</v>
       </c>
       <c r="F71" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="G71" s="12" t="s">
         <v>320</v>
-      </c>
-      <c r="G71" s="12" t="s">
-        <v>321</v>
       </c>
       <c r="H71" s="12"/>
       <c r="I71" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J71" s="10" t="s">
         <v>303</v>
@@ -5352,25 +5352,25 @@
         <v>287</v>
       </c>
       <c r="Q71" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="R71" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="S71" s="8" t="s">
         <v>24</v>
       </c>
       <c r="T71" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="U71" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
+      </c>
+      <c r="U71" s="13" t="s">
+        <v>312</v>
       </c>
       <c r="V71" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="W71" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/export.xlsx
+++ b/xlsx/export.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EXT03426951\Desktop\extension-for-envanter\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71470C47-54BC-426D-B7EE-23B64912F7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5639AB8-0679-4C05-8B33-48750302AD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="797" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Fiber Arıza" sheetId="1" r:id="rId1"/>
+    <sheet name="Deplase Islah Kablo Upgrade" sheetId="2" r:id="rId2"/>
+    <sheet name="HASAR TAZMİN" sheetId="3" r:id="rId3"/>
+    <sheet name="FTTB OPTİMİZASYON" sheetId="5" r:id="rId4"/>
+    <sheet name="KRİTİK MODERNİZASYON" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Fiber Arıza'!$A$1:$N$71</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="378">
   <si>
     <t>Hafta</t>
   </si>
@@ -1002,9 +1006,6 @@
   </si>
   <si>
     <t>ACIKLAMA</t>
-  </si>
-  <si>
-    <t>KALICI ÇÖZÜM SAĞLANDI</t>
   </si>
   <si>
     <t>EVET</t>
@@ -1059,6 +1060,144 @@
   </si>
   <si>
     <t>Etkilenen Servis Bilgileri</t>
+  </si>
+  <si>
+    <t>OTDR Ölçüm Bilgileri</t>
+  </si>
+  <si>
+    <t>Refakat Sağlandı mı?</t>
+  </si>
+  <si>
+    <t>Deplase Islah İhtiyacı var mı</t>
+  </si>
+  <si>
+    <t>KALICI ÇÖZÜM SAĞLANDI MI</t>
+  </si>
+  <si>
+    <t>Hasae tazmin süreci</t>
+  </si>
+  <si>
+    <t>EVET/HAYIR</t>
+  </si>
+  <si>
+    <t>VAR/YOK</t>
+  </si>
+  <si>
+    <t>DDO</t>
+  </si>
+  <si>
+    <t>Manuel</t>
+  </si>
+  <si>
+    <t>İş Tipi</t>
+  </si>
+  <si>
+    <t>DEPLASE</t>
+  </si>
+  <si>
+    <t>GÖMÜLÜ EK KUTUSU</t>
+  </si>
+  <si>
+    <t>ISLAH</t>
+  </si>
+  <si>
+    <t>KABLO UPGRADE</t>
+  </si>
+  <si>
+    <t>EKLENEBİLİR</t>
+  </si>
+  <si>
+    <t>BÖLGE</t>
+  </si>
+  <si>
+    <t>YAZI NO</t>
+  </si>
+  <si>
+    <t>TARİH</t>
+  </si>
+  <si>
+    <t>ASIL FİRMA</t>
+  </si>
+  <si>
+    <t>MUHABERAT VERİLİŞ TARİHİ</t>
+  </si>
+  <si>
+    <t>TAŞERON</t>
+  </si>
+  <si>
+    <t>DURUMU</t>
+  </si>
+  <si>
+    <t>FİRMAYA İLETİLDİ</t>
+  </si>
+  <si>
+    <t>HASAR TAZMİN HAZIRLANIYOR</t>
+  </si>
+  <si>
+    <t>MUHABERAT TESLİM EDEN</t>
+  </si>
+  <si>
+    <t>YIL</t>
+  </si>
+  <si>
+    <t>HAFTA</t>
+  </si>
+  <si>
+    <t>STATÜ</t>
+  </si>
+  <si>
+    <t>FTTB RİNG NAME</t>
+  </si>
+  <si>
+    <t>ÖBEK</t>
+  </si>
+  <si>
+    <t>LOKASYON ID</t>
+  </si>
+  <si>
+    <t>AÇIKLAMA</t>
+  </si>
+  <si>
+    <t>CI NAME</t>
+  </si>
+  <si>
+    <t>DURUM</t>
+  </si>
+  <si>
+    <t>YAPILDI/YAPILMADI</t>
+  </si>
+  <si>
+    <t>KOORDİNAT A</t>
+  </si>
+  <si>
+    <t>KOORDİNAT B</t>
+  </si>
+  <si>
+    <t>DEVAM EDİYOR</t>
+  </si>
+  <si>
+    <t>TAMAMLANDI</t>
+  </si>
+  <si>
+    <t>İŞ TİPİ</t>
+  </si>
+  <si>
+    <t>LOKASYON</t>
+  </si>
+  <si>
+    <t>BÜLTEN NO</t>
+  </si>
+  <si>
+    <t>W1</t>
+  </si>
+  <si>
+    <t>W2</t>
+  </si>
+  <si>
+    <t>0 VERİ</t>
+  </si>
+  <si>
+    <t>YILI SİSTEMDEN AL AMA GÖSTERME</t>
   </si>
 </sst>
 </file>
@@ -1161,7 +1300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1201,9 +1340,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1519,10 +1655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W71"/>
+  <dimension ref="A1:AB71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1530,19 +1666,22 @@
     <col min="1" max="2" width="10.6328125" style="4"/>
     <col min="3" max="4" width="15.6328125" style="4" customWidth="1"/>
     <col min="5" max="5" width="30.6328125" style="4" customWidth="1"/>
-    <col min="6" max="7" width="10.6328125" style="4"/>
-    <col min="8" max="8" width="16.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.6328125" style="4"/>
-    <col min="10" max="11" width="15.6328125" style="4" customWidth="1"/>
-    <col min="12" max="14" width="10.6328125" style="4"/>
-    <col min="15" max="16" width="20.6328125" style="4" customWidth="1"/>
-    <col min="17" max="21" width="10.6328125" style="4"/>
-    <col min="22" max="22" width="20.6328125" style="4" customWidth="1"/>
-    <col min="23" max="23" width="50.6328125" style="4" customWidth="1"/>
-    <col min="24" max="16384" width="10.6328125" style="4"/>
+    <col min="6" max="6" width="10.6328125" style="4"/>
+    <col min="7" max="8" width="15.6328125" style="4" customWidth="1"/>
+    <col min="9" max="10" width="20.6328125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="15.453125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="15.90625" style="4" customWidth="1"/>
+    <col min="13" max="17" width="10.6328125" style="4"/>
+    <col min="18" max="18" width="16.81640625" style="4" customWidth="1"/>
+    <col min="19" max="21" width="10.6328125" style="4"/>
+    <col min="22" max="22" width="24.36328125" style="4" customWidth="1"/>
+    <col min="23" max="23" width="20.6328125" style="4" customWidth="1"/>
+    <col min="24" max="24" width="14.6328125" style="4" customWidth="1"/>
+    <col min="25" max="28" width="24.36328125" style="4" customWidth="1"/>
+    <col min="29" max="16384" width="10.6328125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1558,62 +1697,77 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="R1" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
@@ -1629,44 +1783,57 @@
       <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="F2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="I2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="T2" s="8" t="s">
+      <c r="K2" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="N2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="3" t="s">
+        <v>337</v>
+      </c>
       <c r="W2" s="3"/>
-    </row>
-    <row r="3" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="AB2" s="3"/>
+    </row>
+    <row r="3" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
@@ -1682,44 +1849,49 @@
       <c r="E3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="F3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="I3" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="8" t="s">
+      <c r="L3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>31</v>
       </c>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
-    </row>
-    <row r="4" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+    </row>
+    <row r="4" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
@@ -1735,44 +1907,49 @@
       <c r="E4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="F4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="I4" s="8" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S4" s="8" t="s">
+      <c r="L4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="N4" s="8" t="s">
         <v>36</v>
       </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
-    </row>
-    <row r="5" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+    </row>
+    <row r="5" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
@@ -1788,44 +1965,49 @@
       <c r="E5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="F5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="I5" s="8" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T5" s="8" t="s">
+      <c r="N5" s="8" t="s">
         <v>41</v>
       </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
-    </row>
-    <row r="6" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+    </row>
+    <row r="6" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
@@ -1841,44 +2023,49 @@
       <c r="E6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="F6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="I6" s="8" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="S6" s="8" t="s">
+      <c r="M6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T6" s="8" t="s">
+      <c r="N6" s="8" t="s">
         <v>44</v>
       </c>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
-    </row>
-    <row r="7" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+    </row>
+    <row r="7" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
@@ -1894,44 +2081,49 @@
       <c r="E7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="F7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="I7" s="8" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T7" s="8" t="s">
+      <c r="N7" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
-    </row>
-    <row r="8" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+    </row>
+    <row r="8" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>50</v>
       </c>
@@ -1947,44 +2139,49 @@
       <c r="E8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="F8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="I8" s="8" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T8" s="8" t="s">
+      <c r="N8" s="8" t="s">
         <v>55</v>
       </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
-    </row>
-    <row r="9" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+    </row>
+    <row r="9" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>56</v>
       </c>
@@ -2000,44 +2197,49 @@
       <c r="E9" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="F9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="I9" s="8" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="R9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S9" s="8" t="s">
+      <c r="L9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T9" s="8" t="s">
+      <c r="N9" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
-    </row>
-    <row r="10" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+    </row>
+    <row r="10" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>56</v>
       </c>
@@ -2053,44 +2255,49 @@
       <c r="E10" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="F10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="I10" s="8" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="R10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S10" s="8" t="s">
+      <c r="L10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T10" s="8" t="s">
+      <c r="N10" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
-    </row>
-    <row r="11" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+    </row>
+    <row r="11" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>67</v>
       </c>
@@ -2106,44 +2313,49 @@
       <c r="E11" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="F11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>70</v>
+      </c>
       <c r="I11" s="8" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T11" s="8" t="s">
+      <c r="N11" s="8" t="s">
         <v>72</v>
       </c>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>67</v>
       </c>
@@ -2159,44 +2371,49 @@
       <c r="E12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="F12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="I12" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q12" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="S12" s="8" t="s">
+      <c r="M12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T12" s="8" t="s">
+      <c r="N12" s="8" t="s">
         <v>75</v>
       </c>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
-    </row>
-    <row r="13" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+    </row>
+    <row r="13" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>76</v>
       </c>
@@ -2212,44 +2429,49 @@
       <c r="E13" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="F13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="I13" s="8" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="T13" s="8" t="s">
+      <c r="N13" s="8" t="s">
         <v>82</v>
       </c>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
-    </row>
-    <row r="14" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+    </row>
+    <row r="14" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>83</v>
       </c>
@@ -2265,44 +2487,49 @@
       <c r="E14" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="F14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>86</v>
+      </c>
       <c r="I14" s="8" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="T14" s="8" t="s">
+      <c r="N14" s="8" t="s">
         <v>87</v>
       </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
-    </row>
-    <row r="15" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+    </row>
+    <row r="15" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>83</v>
       </c>
@@ -2318,44 +2545,49 @@
       <c r="E15" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="F15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>90</v>
+      </c>
       <c r="I15" s="8" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="P15" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="R15" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S15" s="8" t="s">
+      <c r="L15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T15" s="8" t="s">
+      <c r="N15" s="8" t="s">
         <v>91</v>
       </c>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
-    </row>
-    <row r="16" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+    </row>
+    <row r="16" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>83</v>
       </c>
@@ -2371,44 +2603,49 @@
       <c r="E16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="F16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>93</v>
+      </c>
       <c r="I16" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="P16" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="R16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S16" s="8" t="s">
+      <c r="L16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T16" s="8" t="s">
+      <c r="N16" s="8" t="s">
         <v>94</v>
       </c>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>83</v>
       </c>
@@ -2424,44 +2661,49 @@
       <c r="E17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="F17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>96</v>
+      </c>
       <c r="I17" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="P17" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q17" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R17" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T17" s="8" t="s">
+      <c r="N17" s="8" t="s">
         <v>97</v>
       </c>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
-    </row>
-    <row r="18" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+    </row>
+    <row r="18" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>98</v>
       </c>
@@ -2477,44 +2719,49 @@
       <c r="E18" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="F18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>101</v>
+      </c>
       <c r="I18" s="8" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="P18" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q18" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R18" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T18" s="8" t="s">
+      <c r="N18" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
-    </row>
-    <row r="19" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+    </row>
+    <row r="19" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>98</v>
       </c>
@@ -2530,44 +2777,49 @@
       <c r="E19" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="F19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>104</v>
+      </c>
       <c r="I19" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="P19" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="R19" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S19" s="8" t="s">
+      <c r="L19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="T19" s="8" t="s">
+      <c r="N19" s="8" t="s">
         <v>105</v>
       </c>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>106</v>
       </c>
@@ -2583,44 +2835,49 @@
       <c r="E20" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="F20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>109</v>
+      </c>
       <c r="I20" s="8" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="P20" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="R20" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S20" s="8" t="s">
+      <c r="L20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T20" s="8" t="s">
+      <c r="N20" s="8" t="s">
         <v>110</v>
       </c>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
-    </row>
-    <row r="21" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+    </row>
+    <row r="21" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>106</v>
       </c>
@@ -2636,44 +2893,49 @@
       <c r="E21" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="F21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="I21" s="8" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="P21" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="R21" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S21" s="8" t="s">
+      <c r="L21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T21" s="8" t="s">
+      <c r="N21" s="8" t="s">
         <v>115</v>
       </c>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
-    </row>
-    <row r="22" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+    </row>
+    <row r="22" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>106</v>
       </c>
@@ -2689,44 +2951,49 @@
       <c r="E22" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="F22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="I22" s="8" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="P22" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q22" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="S22" s="8" t="s">
+      <c r="M22" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="T22" s="8" t="s">
+      <c r="N22" s="8" t="s">
         <v>120</v>
       </c>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
-    </row>
-    <row r="23" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+    </row>
+    <row r="23" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>106</v>
       </c>
@@ -2742,44 +3009,49 @@
       <c r="E23" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="F23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>123</v>
+      </c>
       <c r="I23" s="8" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="P23" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q23" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R23" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M23" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="T23" s="8" t="s">
+      <c r="N23" s="8" t="s">
         <v>124</v>
       </c>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
-    </row>
-    <row r="24" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+    </row>
+    <row r="24" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>106</v>
       </c>
@@ -2795,44 +3067,49 @@
       <c r="E24" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="F24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>127</v>
+      </c>
       <c r="I24" s="8" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P24" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q24" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R24" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T24" s="8" t="s">
+      <c r="N24" s="8" t="s">
         <v>128</v>
       </c>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
-    </row>
-    <row r="25" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+    </row>
+    <row r="25" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>106</v>
       </c>
@@ -2848,44 +3125,49 @@
       <c r="E25" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="F25" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>130</v>
+      </c>
       <c r="I25" s="8" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="P25" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q25" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R25" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="T25" s="8" t="s">
+      <c r="N25" s="8" t="s">
         <v>44</v>
       </c>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
-    </row>
-    <row r="26" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+    </row>
+    <row r="26" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>106</v>
       </c>
@@ -2901,44 +3183,49 @@
       <c r="E26" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="F26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>132</v>
+      </c>
       <c r="I26" s="8" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="P26" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q26" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R26" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M26" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T26" s="8" t="s">
+      <c r="N26" s="8" t="s">
         <v>134</v>
       </c>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
-    </row>
-    <row r="27" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+    </row>
+    <row r="27" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>135</v>
       </c>
@@ -2954,44 +3241,49 @@
       <c r="E27" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
+      <c r="F27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="I27" s="8" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>138</v>
+        <v>48</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="P27" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q27" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R27" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T27" s="8" t="s">
+      <c r="N27" s="8" t="s">
         <v>140</v>
       </c>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
-    </row>
-    <row r="28" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+    </row>
+    <row r="28" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
         <v>135</v>
       </c>
@@ -3007,44 +3299,49 @@
       <c r="E28" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="F28" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>142</v>
+      </c>
       <c r="I28" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>141</v>
+        <v>30</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="P28" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q28" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R28" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S28" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M28" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T28" s="8" t="s">
+      <c r="N28" s="8" t="s">
         <v>143</v>
       </c>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
-    </row>
-    <row r="29" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+    </row>
+    <row r="29" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>135</v>
       </c>
@@ -3060,44 +3357,49 @@
       <c r="E29" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+      <c r="F29" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>146</v>
+      </c>
       <c r="I29" s="8" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>145</v>
+        <v>35</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P29" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q29" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="R29" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S29" s="8" t="s">
+      <c r="L29" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M29" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T29" s="8" t="s">
+      <c r="N29" s="8" t="s">
         <v>147</v>
       </c>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
-    </row>
-    <row r="30" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+    </row>
+    <row r="30" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
         <v>135</v>
       </c>
@@ -3113,44 +3415,49 @@
       <c r="E30" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+      <c r="F30" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="I30" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="P30" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q30" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R30" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S30" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M30" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T30" s="8" t="s">
+      <c r="N30" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
-    </row>
-    <row r="31" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+    </row>
+    <row r="31" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
         <v>135</v>
       </c>
@@ -3166,44 +3473,49 @@
       <c r="E31" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
+      <c r="F31" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>151</v>
+      </c>
       <c r="I31" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="P31" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q31" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R31" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S31" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M31" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T31" s="8" t="s">
+      <c r="N31" s="8" t="s">
         <v>152</v>
       </c>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
-    </row>
-    <row r="32" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+    </row>
+    <row r="32" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
         <v>153</v>
       </c>
@@ -3219,44 +3531,49 @@
       <c r="E32" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
+      <c r="F32" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>155</v>
+      </c>
       <c r="I32" s="8" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="P32" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q32" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R32" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L32" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="S32" s="8" t="s">
+      <c r="M32" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="T32" s="8" t="s">
+      <c r="N32" s="8" t="s">
         <v>157</v>
       </c>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
-    </row>
-    <row r="33" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+    </row>
+    <row r="33" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
         <v>153</v>
       </c>
@@ -3272,44 +3589,49 @@
       <c r="E33" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
+      <c r="F33" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>160</v>
+      </c>
       <c r="I33" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>159</v>
+        <v>54</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="P33" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q33" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R33" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S33" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M33" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T33" s="8" t="s">
+      <c r="N33" s="8" t="s">
         <v>161</v>
       </c>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
-    </row>
-    <row r="34" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+    </row>
+    <row r="34" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
         <v>153</v>
       </c>
@@ -3325,44 +3647,49 @@
       <c r="E34" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
+      <c r="F34" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>163</v>
+      </c>
       <c r="I34" s="8" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="P34" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q34" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R34" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="S34" s="8" t="s">
+      <c r="M34" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="T34" s="8" t="s">
+      <c r="N34" s="8" t="s">
         <v>164</v>
       </c>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
-    </row>
-    <row r="35" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+    </row>
+    <row r="35" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
         <v>153</v>
       </c>
@@ -3378,44 +3705,49 @@
       <c r="E35" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
+      <c r="F35" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>168</v>
+      </c>
       <c r="I35" s="8" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>167</v>
+        <v>30</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="P35" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q35" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="R35" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S35" s="8" t="s">
+      <c r="L35" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M35" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T35" s="8" t="s">
+      <c r="N35" s="8" t="s">
         <v>169</v>
       </c>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
-    </row>
-    <row r="36" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+    </row>
+    <row r="36" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
         <v>153</v>
       </c>
@@ -3431,44 +3763,49 @@
       <c r="E36" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
+      <c r="F36" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>172</v>
+      </c>
       <c r="I36" s="8" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="P36" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q36" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R36" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S36" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M36" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T36" s="8" t="s">
+      <c r="N36" s="8" t="s">
         <v>173</v>
       </c>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
-    </row>
-    <row r="37" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+    </row>
+    <row r="37" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>153</v>
       </c>
@@ -3484,44 +3821,49 @@
       <c r="E37" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
+      <c r="F37" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>176</v>
+      </c>
       <c r="I37" s="8" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="P37" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q37" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R37" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L37" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="S37" s="8" t="s">
+      <c r="M37" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="T37" s="8" t="s">
+      <c r="N37" s="8" t="s">
         <v>177</v>
       </c>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
-    </row>
-    <row r="38" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3"/>
+    </row>
+    <row r="38" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="8" t="s">
         <v>153</v>
       </c>
@@ -3537,44 +3879,49 @@
       <c r="E38" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
+      <c r="F38" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>179</v>
+      </c>
       <c r="I38" s="8" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="P38" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q38" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R38" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S38" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M38" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="T38" s="8" t="s">
+      <c r="N38" s="8" t="s">
         <v>164</v>
       </c>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
-    </row>
-    <row r="39" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
+    </row>
+    <row r="39" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
         <v>153</v>
       </c>
@@ -3590,44 +3937,49 @@
       <c r="E39" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
+      <c r="F39" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>181</v>
+      </c>
       <c r="I39" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="P39" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q39" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R39" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S39" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M39" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T39" s="8" t="s">
+      <c r="N39" s="8" t="s">
         <v>182</v>
       </c>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
         <v>153</v>
       </c>
@@ -3643,44 +3995,49 @@
       <c r="E40" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
+      <c r="F40" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>184</v>
+      </c>
       <c r="I40" s="8" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>183</v>
+        <v>30</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="P40" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q40" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="R40" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S40" s="8" t="s">
+      <c r="L40" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M40" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T40" s="8" t="s">
+      <c r="N40" s="8" t="s">
         <v>185</v>
       </c>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
         <v>153</v>
       </c>
@@ -3696,44 +4053,49 @@
       <c r="E41" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
+      <c r="F41" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>187</v>
+      </c>
       <c r="I41" s="8" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>186</v>
+        <v>71</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="P41" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q41" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R41" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S41" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M41" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T41" s="8" t="s">
+      <c r="N41" s="8" t="s">
         <v>188</v>
       </c>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
-    </row>
-    <row r="42" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3"/>
+      <c r="AB41" s="3"/>
+    </row>
+    <row r="42" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
         <v>189</v>
       </c>
@@ -3749,44 +4111,49 @@
       <c r="E42" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
+      <c r="F42" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>191</v>
+      </c>
       <c r="I42" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="P42" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q42" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R42" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S42" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M42" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T42" s="8" t="s">
+      <c r="N42" s="8" t="s">
         <v>192</v>
       </c>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
-    </row>
-    <row r="43" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="3"/>
+      <c r="AB42" s="3"/>
+    </row>
+    <row r="43" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
         <v>189</v>
       </c>
@@ -3802,44 +4169,49 @@
       <c r="E43" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
+      <c r="F43" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>195</v>
+      </c>
       <c r="I43" s="8" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>194</v>
+        <v>54</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="P43" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q43" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R43" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S43" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M43" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T43" s="8" t="s">
+      <c r="N43" s="8" t="s">
         <v>196</v>
       </c>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
-    </row>
-    <row r="44" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
+      <c r="AB43" s="3"/>
+    </row>
+    <row r="44" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
         <v>189</v>
       </c>
@@ -3855,44 +4227,49 @@
       <c r="E44" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
+      <c r="F44" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>198</v>
+      </c>
       <c r="I44" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>197</v>
+        <v>30</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="P44" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q44" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="R44" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S44" s="8" t="s">
+      <c r="L44" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M44" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T44" s="8" t="s">
+      <c r="N44" s="8" t="s">
         <v>199</v>
       </c>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
-    </row>
-    <row r="45" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="3"/>
+      <c r="AB44" s="3"/>
+    </row>
+    <row r="45" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="8" t="s">
         <v>189</v>
       </c>
@@ -3908,44 +4285,49 @@
       <c r="E45" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
+      <c r="F45" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>202</v>
+      </c>
       <c r="I45" s="8" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>201</v>
+        <v>71</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="P45" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q45" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R45" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S45" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M45" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="T45" s="8" t="s">
+      <c r="N45" s="8" t="s">
         <v>203</v>
       </c>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
-    </row>
-    <row r="46" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+      <c r="AB45" s="3"/>
+    </row>
+    <row r="46" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8" t="s">
         <v>189</v>
       </c>
@@ -3961,44 +4343,49 @@
       <c r="E46" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
+      <c r="F46" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>206</v>
+      </c>
       <c r="I46" s="8" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>205</v>
+        <v>48</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="P46" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q46" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R46" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S46" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M46" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T46" s="8" t="s">
+      <c r="N46" s="8" t="s">
         <v>207</v>
       </c>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
-    </row>
-    <row r="47" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="3"/>
+      <c r="AB46" s="3"/>
+    </row>
+    <row r="47" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
         <v>208</v>
       </c>
@@ -4014,44 +4401,49 @@
       <c r="E47" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
+      <c r="F47" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>211</v>
+      </c>
       <c r="I47" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>210</v>
+        <v>54</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="P47" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q47" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R47" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S47" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M47" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="T47" s="8" t="s">
+      <c r="N47" s="8" t="s">
         <v>212</v>
       </c>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
-    </row>
-    <row r="48" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+      <c r="AA47" s="3"/>
+      <c r="AB47" s="3"/>
+    </row>
+    <row r="48" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
         <v>208</v>
       </c>
@@ -4067,44 +4459,49 @@
       <c r="E48" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
+      <c r="F48" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>214</v>
+      </c>
       <c r="I48" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>213</v>
+        <v>54</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="P48" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q48" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R48" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S48" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M48" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T48" s="8" t="s">
+      <c r="N48" s="8" t="s">
         <v>215</v>
       </c>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
-    </row>
-    <row r="49" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="3"/>
+      <c r="AB48" s="3"/>
+    </row>
+    <row r="49" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
         <v>216</v>
       </c>
@@ -4120,44 +4517,49 @@
       <c r="E49" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
+      <c r="F49" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>219</v>
+      </c>
       <c r="I49" s="8" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>218</v>
+        <v>156</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="P49" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q49" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R49" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S49" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M49" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T49" s="8" t="s">
+      <c r="N49" s="8" t="s">
         <v>220</v>
       </c>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
-    </row>
-    <row r="50" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+      <c r="AA49" s="3"/>
+      <c r="AB49" s="3"/>
+    </row>
+    <row r="50" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
         <v>216</v>
       </c>
@@ -4173,44 +4575,49 @@
       <c r="E50" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
+      <c r="F50" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>223</v>
+      </c>
       <c r="I50" s="8" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>222</v>
+        <v>30</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="P50" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q50" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R50" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S50" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M50" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T50" s="8" t="s">
+      <c r="N50" s="8" t="s">
         <v>224</v>
       </c>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
-    </row>
-    <row r="51" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
+      <c r="AA50" s="3"/>
+      <c r="AB50" s="3"/>
+    </row>
+    <row r="51" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
         <v>216</v>
       </c>
@@ -4226,44 +4633,49 @@
       <c r="E51" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
+      <c r="F51" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>227</v>
+      </c>
       <c r="I51" s="8" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="J51" s="8" t="s">
-        <v>226</v>
+        <v>71</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="P51" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q51" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R51" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S51" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M51" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T51" s="8" t="s">
+      <c r="N51" s="8" t="s">
         <v>228</v>
       </c>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
-    </row>
-    <row r="52" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X51" s="3"/>
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="3"/>
+      <c r="AA51" s="3"/>
+      <c r="AB51" s="3"/>
+    </row>
+    <row r="52" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
         <v>216</v>
       </c>
@@ -4279,44 +4691,49 @@
       <c r="E52" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
+      <c r="F52" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>231</v>
+      </c>
       <c r="I52" s="8" t="s">
-        <v>27</v>
+        <v>232</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="P52" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q52" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R52" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S52" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L52" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M52" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="T52" s="8" t="s">
+      <c r="N52" s="8" t="s">
         <v>233</v>
       </c>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
-    </row>
-    <row r="53" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="3"/>
+      <c r="AA52" s="3"/>
+      <c r="AB52" s="3"/>
+    </row>
+    <row r="53" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
         <v>234</v>
       </c>
@@ -4332,44 +4749,49 @@
       <c r="E53" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
+      <c r="F53" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>237</v>
+      </c>
       <c r="I53" s="8" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J53" s="8" t="s">
-        <v>236</v>
+        <v>30</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="P53" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q53" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R53" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S53" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L53" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M53" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T53" s="8" t="s">
+      <c r="N53" s="8" t="s">
         <v>238</v>
       </c>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
-    </row>
-    <row r="54" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="3"/>
+      <c r="AA53" s="3"/>
+      <c r="AB53" s="3"/>
+    </row>
+    <row r="54" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="8" t="s">
         <v>234</v>
       </c>
@@ -4385,44 +4807,49 @@
       <c r="E54" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
+      <c r="F54" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>241</v>
+      </c>
       <c r="I54" s="8" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>240</v>
+        <v>156</v>
       </c>
       <c r="K54" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="P54" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q54" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="R54" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S54" s="8" t="s">
+      <c r="L54" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M54" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T54" s="8" t="s">
+      <c r="N54" s="8" t="s">
         <v>242</v>
       </c>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
-    </row>
-    <row r="55" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="3"/>
+      <c r="AA54" s="3"/>
+      <c r="AB54" s="3"/>
+    </row>
+    <row r="55" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="8" t="s">
         <v>234</v>
       </c>
@@ -4438,44 +4865,49 @@
       <c r="E55" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
+      <c r="F55" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="I55" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>244</v>
+        <v>133</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="P55" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q55" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R55" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S55" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L55" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M55" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T55" s="8" t="s">
+      <c r="N55" s="8" t="s">
         <v>228</v>
       </c>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="8" t="s">
         <v>234</v>
       </c>
@@ -4491,44 +4923,49 @@
       <c r="E56" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
+      <c r="F56" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>247</v>
+      </c>
       <c r="I56" s="8" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>246</v>
+        <v>133</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="P56" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q56" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R56" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S56" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L56" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M56" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T56" s="8" t="s">
+      <c r="N56" s="8" t="s">
         <v>248</v>
       </c>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="8" t="s">
         <v>249</v>
       </c>
@@ -4544,44 +4981,49 @@
       <c r="E57" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
+      <c r="F57" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>252</v>
+      </c>
       <c r="I57" s="8" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="J57" s="8" t="s">
-        <v>251</v>
+        <v>156</v>
       </c>
       <c r="K57" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="P57" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q57" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R57" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S57" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L57" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M57" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="T57" s="8" t="s">
+      <c r="N57" s="8" t="s">
         <v>253</v>
       </c>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
       <c r="W57" s="3"/>
-    </row>
-    <row r="58" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X57" s="3"/>
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="3"/>
+      <c r="AA57" s="3"/>
+      <c r="AB57" s="3"/>
+    </row>
+    <row r="58" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="8" t="s">
         <v>249</v>
       </c>
@@ -4597,44 +5039,49 @@
       <c r="E58" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
+      <c r="F58" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>256</v>
+      </c>
       <c r="I58" s="8" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>255</v>
+        <v>119</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="P58" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q58" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R58" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S58" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L58" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M58" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T58" s="8" t="s">
+      <c r="N58" s="8" t="s">
         <v>257</v>
       </c>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
       <c r="W58" s="3"/>
-    </row>
-    <row r="59" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X58" s="3"/>
+      <c r="Y58" s="3"/>
+      <c r="Z58" s="3"/>
+      <c r="AA58" s="3"/>
+      <c r="AB58" s="3"/>
+    </row>
+    <row r="59" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="8" t="s">
         <v>249</v>
       </c>
@@ -4650,44 +5097,49 @@
       <c r="E59" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
+      <c r="F59" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>260</v>
+      </c>
       <c r="I59" s="8" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="J59" s="8" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="P59" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q59" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R59" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S59" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L59" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M59" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="T59" s="8" t="s">
+      <c r="N59" s="8" t="s">
         <v>262</v>
       </c>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
       <c r="W59" s="3"/>
-    </row>
-    <row r="60" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X59" s="3"/>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3"/>
+      <c r="AA59" s="3"/>
+      <c r="AB59" s="3"/>
+    </row>
+    <row r="60" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
         <v>249</v>
       </c>
@@ -4703,44 +5155,49 @@
       <c r="E60" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
+      <c r="F60" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>264</v>
+      </c>
       <c r="I60" s="8" t="s">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>263</v>
+        <v>156</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="P60" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q60" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R60" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S60" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L60" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M60" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T60" s="8" t="s">
+      <c r="N60" s="8" t="s">
         <v>265</v>
       </c>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
       <c r="W60" s="3"/>
-    </row>
-    <row r="61" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X60" s="3"/>
+      <c r="Y60" s="3"/>
+      <c r="Z60" s="3"/>
+      <c r="AA60" s="3"/>
+      <c r="AB60" s="3"/>
+    </row>
+    <row r="61" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="8" t="s">
         <v>249</v>
       </c>
@@ -4756,44 +5213,49 @@
       <c r="E61" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
+      <c r="F61" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>267</v>
+      </c>
       <c r="I61" s="8" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="J61" s="8" t="s">
-        <v>266</v>
+        <v>54</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
-      <c r="O61" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="P61" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q61" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R61" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S61" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L61" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M61" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T61" s="8" t="s">
+      <c r="N61" s="8" t="s">
         <v>268</v>
       </c>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
       <c r="W61" s="3"/>
-    </row>
-    <row r="62" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X61" s="3"/>
+      <c r="Y61" s="3"/>
+      <c r="Z61" s="3"/>
+      <c r="AA61" s="3"/>
+      <c r="AB61" s="3"/>
+    </row>
+    <row r="62" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="8" t="s">
         <v>249</v>
       </c>
@@ -4809,44 +5271,49 @@
       <c r="E62" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
+      <c r="F62" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>271</v>
+      </c>
       <c r="I62" s="8" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>270</v>
+        <v>119</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="P62" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q62" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R62" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S62" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L62" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M62" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T62" s="8" t="s">
+      <c r="N62" s="8" t="s">
         <v>272</v>
       </c>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
       <c r="W62" s="3"/>
-    </row>
-    <row r="63" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X62" s="3"/>
+      <c r="Y62" s="3"/>
+      <c r="Z62" s="3"/>
+      <c r="AA62" s="3"/>
+      <c r="AB62" s="3"/>
+    </row>
+    <row r="63" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="8" t="s">
         <v>273</v>
       </c>
@@ -4862,44 +5329,49 @@
       <c r="E63" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
+      <c r="F63" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>275</v>
+      </c>
       <c r="I63" s="8" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>274</v>
+        <v>30</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
-      <c r="O63" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="P63" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q63" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R63" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S63" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L63" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M63" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T63" s="8" t="s">
+      <c r="N63" s="8" t="s">
         <v>276</v>
       </c>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
-    </row>
-    <row r="64" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X63" s="3"/>
+      <c r="Y63" s="3"/>
+      <c r="Z63" s="3"/>
+      <c r="AA63" s="3"/>
+      <c r="AB63" s="3"/>
+    </row>
+    <row r="64" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="8" t="s">
         <v>273</v>
       </c>
@@ -4915,44 +5387,49 @@
       <c r="E64" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
+      <c r="F64" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>278</v>
+      </c>
       <c r="I64" s="8" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>277</v>
+        <v>156</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
-      <c r="O64" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="P64" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q64" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R64" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S64" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L64" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M64" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T64" s="8" t="s">
+      <c r="N64" s="8" t="s">
         <v>279</v>
       </c>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3"/>
+      <c r="S64" s="3"/>
+      <c r="T64" s="3"/>
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
       <c r="W64" s="3"/>
-    </row>
-    <row r="65" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X64" s="3"/>
+      <c r="Y64" s="3"/>
+      <c r="Z64" s="3"/>
+      <c r="AA64" s="3"/>
+      <c r="AB64" s="3"/>
+    </row>
+    <row r="65" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="8" t="s">
         <v>273</v>
       </c>
@@ -4968,44 +5445,49 @@
       <c r="E65" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
+      <c r="F65" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>282</v>
+      </c>
       <c r="I65" s="8" t="s">
-        <v>27</v>
+        <v>283</v>
       </c>
       <c r="J65" s="8" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
-      <c r="N65" s="3"/>
-      <c r="O65" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="P65" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q65" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R65" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S65" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L65" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M65" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T65" s="8" t="s">
+      <c r="N65" s="8" t="s">
         <v>284</v>
       </c>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
       <c r="W65" s="3"/>
-    </row>
-    <row r="66" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X65" s="3"/>
+      <c r="Y65" s="3"/>
+      <c r="Z65" s="3"/>
+      <c r="AA65" s="3"/>
+      <c r="AB65" s="3"/>
+    </row>
+    <row r="66" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="8" t="s">
         <v>273</v>
       </c>
@@ -5021,44 +5503,49 @@
       <c r="E66" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
+      <c r="F66" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>286</v>
+      </c>
       <c r="I66" s="8" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J66" s="8" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
-      <c r="N66" s="3"/>
-      <c r="O66" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P66" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q66" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R66" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L66" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="S66" s="8" t="s">
+      <c r="M66" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T66" s="8" t="s">
+      <c r="N66" s="8" t="s">
         <v>288</v>
       </c>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
       <c r="W66" s="3"/>
-    </row>
-    <row r="67" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X66" s="3"/>
+      <c r="Y66" s="3"/>
+      <c r="Z66" s="3"/>
+      <c r="AA66" s="3"/>
+      <c r="AB66" s="3"/>
+    </row>
+    <row r="67" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="8" t="s">
         <v>273</v>
       </c>
@@ -5074,44 +5561,49 @@
       <c r="E67" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
+      <c r="F67" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>290</v>
+      </c>
       <c r="I67" s="8" t="s">
-        <v>27</v>
+        <v>232</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>289</v>
+        <v>232</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
-      <c r="O67" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="P67" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q67" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R67" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S67" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L67" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M67" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="T67" s="8" t="s">
+      <c r="N67" s="8" t="s">
         <v>291</v>
       </c>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="10" t="s">
         <v>273</v>
       </c>
@@ -5127,44 +5619,49 @@
       <c r="E68" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
+      <c r="F68" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>294</v>
+      </c>
       <c r="I68" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J68" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="K68" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="L68" s="12"/>
-      <c r="M68" s="12"/>
-      <c r="N68" s="12"/>
-      <c r="O68" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="P68" s="8" t="s">
+      <c r="J68" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="Q68" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R68" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S68" s="8" t="s">
+      <c r="K68" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L68" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M68" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T68" s="8" t="s">
+      <c r="N68" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="U68" s="3"/>
+      <c r="O68" s="12"/>
+      <c r="P68" s="12"/>
+      <c r="Q68" s="12"/>
+      <c r="R68" s="12"/>
+      <c r="S68" s="12"/>
+      <c r="T68" s="12"/>
+      <c r="U68" s="12"/>
       <c r="V68" s="3"/>
       <c r="W68" s="3"/>
-    </row>
-    <row r="69" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X68" s="3"/>
+      <c r="Y68" s="3"/>
+      <c r="Z68" s="3"/>
+      <c r="AA68" s="3"/>
+      <c r="AB68" s="3"/>
+    </row>
+    <row r="69" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="10" t="s">
         <v>296</v>
       </c>
@@ -5180,62 +5677,67 @@
       <c r="E69" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="F69" s="12" t="s">
+      <c r="F69" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="I69" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="J69" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="K69" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="L69" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M69" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="N69" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="O69" s="12"/>
+      <c r="P69" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="G69" s="12" t="s">
+      <c r="Q69" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="H69" s="12" t="s">
+      <c r="R69" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="I69" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="J69" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="K69" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="L69" s="12">
+      <c r="S69" s="12">
         <v>96</v>
       </c>
-      <c r="M69" s="12">
+      <c r="T69" s="12">
         <v>261</v>
       </c>
-      <c r="N69" s="12">
+      <c r="U69" s="12">
         <v>247</v>
       </c>
-      <c r="O69" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="P69" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q69" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="R69" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="S69" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="T69" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="U69" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="V69" s="3" t="s">
-        <v>325</v>
+      <c r="V69" s="13" t="s">
+        <v>322</v>
       </c>
       <c r="W69" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+        <v>324</v>
+      </c>
+      <c r="X69" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y69" s="13"/>
+      <c r="Z69" s="13"/>
+      <c r="AA69" s="13"/>
+      <c r="AB69" s="13"/>
+    </row>
+    <row r="70" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="10" t="s">
         <v>296</v>
       </c>
@@ -5251,60 +5753,65 @@
       <c r="E70" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F70" s="12" t="s">
+      <c r="F70" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="I70" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J70" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="K70" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="L70" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M70" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N70" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="O70" s="12"/>
+      <c r="P70" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="G70" s="12" t="s">
+      <c r="Q70" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="H70" s="12"/>
-      <c r="I70" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="J70" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="K70" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="L70" s="12" t="s">
+      <c r="R70" s="12"/>
+      <c r="S70" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="M70" s="12">
+      <c r="T70" s="12">
         <v>327</v>
       </c>
-      <c r="N70" s="12">
+      <c r="U70" s="12">
         <v>275</v>
       </c>
-      <c r="O70" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="P70" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q70" s="8" t="s">
+      <c r="V70" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="R70" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="S70" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="T70" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="U70" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="V70" s="3" t="s">
-        <v>326</v>
-      </c>
       <c r="W70" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+        <v>325</v>
+      </c>
+      <c r="X70" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y70" s="13"/>
+      <c r="Z70" s="13"/>
+      <c r="AA70" s="13"/>
+      <c r="AB70" s="13"/>
+    </row>
+    <row r="71" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="10" t="s">
         <v>296</v>
       </c>
@@ -5320,74 +5827,352 @@
       <c r="E71" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="F71" s="12" t="s">
+      <c r="F71" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="I71" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J71" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="K71" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="L71" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="M71" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N71" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="O71" s="12"/>
+      <c r="P71" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="G71" s="12" t="s">
+      <c r="Q71" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="H71" s="12"/>
-      <c r="I71" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="J71" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="K71" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="L71" s="12">
+      <c r="R71" s="12"/>
+      <c r="S71" s="12">
         <v>48</v>
       </c>
-      <c r="M71" s="12">
+      <c r="T71" s="12">
         <v>237.6</v>
       </c>
-      <c r="N71" s="12">
+      <c r="U71" s="12">
         <v>108</v>
       </c>
-      <c r="O71" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="P71" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q71" s="8" t="s">
+      <c r="V71" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="R71" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="S71" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="T71" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="U71" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="V71" s="3" t="s">
-        <v>327</v>
-      </c>
       <c r="W71" s="3" t="s">
-        <v>330</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="X71" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y71" s="13"/>
+      <c r="Z71" s="13"/>
+      <c r="AA71" s="13"/>
+      <c r="AB71" s="13"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I69:I71" xr:uid="{14EA6B3F-524F-4D68-91F4-749D5D0D0656}">
-      <formula1>$X$40:$X$41</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F69:F71" xr:uid="{14EA6B3F-524F-4D68-91F4-749D5D0D0656}">
+      <formula1>$AB$40:$AB$41</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M69:M71" xr:uid="{33E75FF1-7440-4FA0-A6E5-5786CA47D20A}">
-      <formula1>$Y$45:$Y$50</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T69:T71" xr:uid="{33E75FF1-7440-4FA0-A6E5-5786CA47D20A}">
+      <formula1>$AC$45:$AC$50</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L69:L71" xr:uid="{BCDC3482-0150-4FED-B0E2-EEC6F7D96742}">
-      <formula1>$X$34:$X$39</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S69:S71" xr:uid="{BCDC3482-0150-4FED-B0E2-EEC6F7D96742}">
+      <formula1>$AB$34:$AB$39</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="F69:G71" numberStoredAsText="1"/>
-  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E91290-0C96-4C80-BCA2-F97D6D5A5CAA}">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="14.08984375" customWidth="1"/>
+    <col min="5" max="5" width="10.90625" customWidth="1"/>
+    <col min="6" max="6" width="18.90625" customWidth="1"/>
+    <col min="7" max="8" width="14.36328125" customWidth="1"/>
+    <col min="9" max="9" width="11.6328125" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G1" t="s">
+        <v>367</v>
+      </c>
+      <c r="H1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I1" t="s">
+        <v>363</v>
+      </c>
+      <c r="J1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F2" t="s">
+        <v>342</v>
+      </c>
+      <c r="J2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F3" t="s">
+        <v>343</v>
+      </c>
+      <c r="J3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7915DB-74F2-4A62-8100-FE8DC438CDAF}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="29" customWidth="1"/>
+    <col min="8" max="8" width="29.81640625" customWidth="1"/>
+    <col min="9" max="9" width="25.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H1" t="s">
+        <v>353</v>
+      </c>
+      <c r="I1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24ADADE5-A479-489D-BC19-CD35379DB5AB}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="17.26953125" customWidth="1"/>
+    <col min="8" max="8" width="13.90625" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" customWidth="1"/>
+    <col min="10" max="10" width="11.90625" customWidth="1"/>
+    <col min="11" max="11" width="19.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G1" t="s">
+        <v>360</v>
+      </c>
+      <c r="H1" t="s">
+        <v>362</v>
+      </c>
+      <c r="I1" t="s">
+        <v>364</v>
+      </c>
+      <c r="J1" t="s">
+        <v>363</v>
+      </c>
+      <c r="K1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB9217D-4F09-4C13-A7FF-20F055D6A874}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="21.26953125" customWidth="1"/>
+    <col min="5" max="6" width="13.1796875" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" customWidth="1"/>
+    <col min="8" max="8" width="9.54296875" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G1" t="s">
+        <v>371</v>
+      </c>
+      <c r="H1" t="s">
+        <v>372</v>
+      </c>
+      <c r="I1" t="s">
+        <v>363</v>
+      </c>
+      <c r="J1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/xlsx/export.xlsx
+++ b/xlsx/export.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EXT03426951\Desktop\extension-for-envanter\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5639AB8-0679-4C05-8B33-48750302AD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6ED26A-4F2A-496E-A5B3-250845EDECDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="797" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="826" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fiber Arıza" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="376">
   <si>
     <t>Hafta</t>
   </si>
@@ -1086,9 +1086,6 @@
     <t>DDO</t>
   </si>
   <si>
-    <t>Manuel</t>
-  </si>
-  <si>
     <t>İş Tipi</t>
   </si>
   <si>
@@ -1192,9 +1189,6 @@
   </si>
   <si>
     <t>W2</t>
-  </si>
-  <si>
-    <t>0 VERİ</t>
   </si>
   <si>
     <t>YILI SİSTEMDEN AL AMA GÖSTERME</t>
@@ -1657,8 +1651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1725,7 +1719,7 @@
         <v>330</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>313</v>
@@ -5903,86 +5897,80 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E91290-0C96-4C80-BCA2-F97D6D5A5CAA}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="14.08984375" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" customWidth="1"/>
-    <col min="6" max="6" width="18.90625" customWidth="1"/>
-    <col min="7" max="8" width="14.36328125" customWidth="1"/>
-    <col min="9" max="9" width="11.6328125" customWidth="1"/>
-    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="3" max="3" width="14.08984375" customWidth="1"/>
+    <col min="4" max="4" width="10.90625" customWidth="1"/>
+    <col min="5" max="5" width="18.90625" customWidth="1"/>
+    <col min="6" max="7" width="14.36328125" customWidth="1"/>
+    <col min="8" max="8" width="11.6328125" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="B1" t="s">
         <v>357</v>
       </c>
       <c r="C1" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="D1" t="s">
-        <v>339</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>340</v>
       </c>
       <c r="F1" t="s">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="G1" t="s">
         <v>367</v>
       </c>
       <c r="H1" t="s">
+        <v>362</v>
+      </c>
+      <c r="I1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E2" t="s">
+        <v>341</v>
+      </c>
+      <c r="I2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>342</v>
+      </c>
+      <c r="I3" t="s">
         <v>368</v>
       </c>
-      <c r="I1" t="s">
-        <v>363</v>
-      </c>
-      <c r="J1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D2" t="s">
-        <v>340</v>
-      </c>
-      <c r="F2" t="s">
-        <v>342</v>
-      </c>
-      <c r="J2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F3" t="s">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E4" t="s">
         <v>343</v>
       </c>
-      <c r="J3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F4" t="s">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E5" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F5" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E6" t="s">
         <v>345</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F6" t="s">
-        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -5992,23 +5980,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7915DB-74F2-4A62-8100-FE8DC438CDAF}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="8" max="8" width="29.81640625" customWidth="1"/>
-    <col min="9" max="9" width="25.08984375" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="7" max="7" width="29.81640625" customWidth="1"/>
+    <col min="8" max="8" width="25.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>376</v>
+        <v>346</v>
       </c>
       <c r="B1" t="s">
         <v>347</v>
@@ -6029,20 +6017,17 @@
         <v>352</v>
       </c>
       <c r="H1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G2" t="s">
         <v>353</v>
       </c>
-      <c r="I1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H2" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G3" t="s">
         <v>354</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H3" t="s">
-        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -6052,59 +6037,56 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24ADADE5-A479-489D-BC19-CD35379DB5AB}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="17.26953125" customWidth="1"/>
-    <col min="8" max="8" width="13.90625" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" customWidth="1"/>
-    <col min="10" max="10" width="11.90625" customWidth="1"/>
-    <col min="11" max="11" width="19.453125" customWidth="1"/>
+    <col min="6" max="6" width="17.26953125" customWidth="1"/>
+    <col min="7" max="7" width="13.90625" customWidth="1"/>
+    <col min="8" max="8" width="11.26953125" customWidth="1"/>
+    <col min="9" max="9" width="11.90625" customWidth="1"/>
+    <col min="10" max="10" width="19.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="B1" t="s">
         <v>357</v>
       </c>
       <c r="C1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D1" t="s">
         <v>358</v>
       </c>
-      <c r="D1" t="s">
-        <v>339</v>
-      </c>
       <c r="E1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F1" t="s">
         <v>359</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>361</v>
       </c>
-      <c r="G1" t="s">
-        <v>360</v>
-      </c>
       <c r="H1" t="s">
+        <v>363</v>
+      </c>
+      <c r="I1" t="s">
         <v>362</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>364</v>
       </c>
-      <c r="J1" t="s">
-        <v>363</v>
-      </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J2" t="s">
         <v>365</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="K2" t="s">
-        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -6114,62 +6096,59 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB9217D-4F09-4C13-A7FF-20F055D6A874}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="21.26953125" customWidth="1"/>
-    <col min="5" max="6" width="13.1796875" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" customWidth="1"/>
-    <col min="8" max="8" width="9.54296875" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" customWidth="1"/>
-    <col min="10" max="10" width="9.1796875" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" customWidth="1"/>
+    <col min="4" max="5" width="13.1796875" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" customWidth="1"/>
+    <col min="8" max="8" width="10.36328125" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="B1" t="s">
         <v>357</v>
       </c>
       <c r="C1" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="D1" t="s">
-        <v>339</v>
+        <v>372</v>
       </c>
       <c r="E1" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="F1" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="G1" t="s">
         <v>371</v>
       </c>
       <c r="H1" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="I1" t="s">
-        <v>363</v>
-      </c>
-      <c r="J1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
         <v>374</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C3" t="s">
-        <v>375</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/export.xlsx
+++ b/xlsx/export.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EXT03426951\Desktop\extension-for-envanter\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6ED26A-4F2A-496E-A5B3-250845EDECDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6339C5C3-EB64-4622-B0E0-E075AE865A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="826" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="826" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fiber Arıza" sheetId="1" r:id="rId1"/>
@@ -1651,7 +1651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB71"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
@@ -5899,7 +5899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E91290-0C96-4C80-BCA2-F97D6D5A5CAA}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:I3"/>
     </sheetView>
   </sheetViews>
